--- a/data/trans_bre/P16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Edad-trans_bre.xlsx
@@ -681,11 +681,11 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>1.752263092457209</v>
+        <v>1.561743129156532</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>4.804251690742612</v>
+        <v>4.656937297022913</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1276969796541794</v>
+        <v>-0.1277057924050387</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.65445625010717</v>
+        <v>-1.787033863886117</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5701638798596737</v>
+        <v>-0.4964290260723213</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.51562451344978</v>
+        <v>1.372837246890068</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.1455290567906894</v>
+        <v>-0.1468236606775041</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.209874585035068</v>
+        <v>1.217199677202245</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.441522214624671</v>
+        <v>1.384393626921914</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -824,22 +824,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5168131922669951</v>
+        <v>0.4370883749833752</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1515668022976039</v>
+        <v>0.1378236447849032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4687340931896016</v>
+        <v>-0.4738895470022209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.02858520437649267</v>
+        <v>0.09779259902057995</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5241805853195107</v>
+        <v>-0.3390019252583674</v>
       </c>
     </row>
     <row r="12">
@@ -850,16 +852,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.394388813710802</v>
+        <v>2.369656367189035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.709276729716224</v>
+        <v>1.667691643656731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9762828650793831</v>
+        <v>0.9980777927821474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.807211871688289</v>
+        <v>1.97341614223806</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -887,7 +889,7 @@
         <v>2.303370805238441</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8589412636313024</v>
+        <v>0.8589412636313031</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3965728683398808</v>
@@ -899,7 +901,7 @@
         <v>4.536034557656692</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4497750529993547</v>
+        <v>0.4497750529993552</v>
       </c>
     </row>
     <row r="14">
@@ -910,28 +912,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.21277571883223</v>
+        <v>-1.216540444727722</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07802159768479437</v>
+        <v>0.1783861882255736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9378746962687553</v>
+        <v>1.007263777923232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7377882240403131</v>
+        <v>-0.8452508946075651</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4589710894096234</v>
+        <v>-0.4261290217284532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.160903252665518</v>
+        <v>-0.1645909668137902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3135767868263059</v>
+        <v>0.4965401470337739</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.313108423829588</v>
+        <v>-0.2898513508496186</v>
       </c>
     </row>
     <row r="15">
@@ -942,30 +944,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.69170351620545</v>
+        <v>2.753382450340373</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.208919384253821</v>
+        <v>3.553756732893386</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.880202134927031</v>
+        <v>4.036109060763699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.303969395541987</v>
+        <v>2.209725205515528</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.397852373649724</v>
+        <v>2.661378832725379</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7.239239119356789</v>
-      </c>
-      <c r="I15" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.433437170606389</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>22.14496035944588</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.788276332129193</v>
+        <v>1.995284091508606</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>3.400324415248734</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.477269339022167</v>
+        <v>4.477269339022168</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1884712921880626</v>
@@ -1001,7 +1001,7 @@
         <v>1.570113137740281</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.863722771118096</v>
+        <v>1.863722771118097</v>
       </c>
     </row>
     <row r="17">
@@ -1012,28 +1012,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.582241608405968</v>
+        <v>-2.719053347141833</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.342381851943669</v>
+        <v>3.144305163901065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9839709816774894</v>
+        <v>0.5694572916661783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.388896320603614</v>
+        <v>2.444496613998509</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2824820725387668</v>
+        <v>-0.2751944435324911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8206729664416033</v>
+        <v>0.646524800933274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1270210798273846</v>
+        <v>0.1154127929326111</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5915995005452986</v>
+        <v>0.6802010534392513</v>
       </c>
     </row>
     <row r="18">
@@ -1044,28 +1044,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.58839973151621</v>
+        <v>5.475072681059783</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.730981590066291</v>
+        <v>9.401551651417474</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.852955608577304</v>
+        <v>5.783578317560505</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.492936701778576</v>
+        <v>6.522390317477729</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9758556416944159</v>
+        <v>1.031013837287178</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.951838116007564</v>
+        <v>5.505966209191981</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.762269045258075</v>
+        <v>4.915132909379768</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4.161268086830745</v>
+        <v>4.110766986139827</v>
       </c>
     </row>
     <row r="19">
@@ -1101,7 +1101,7 @@
         <v>2.116355984181352</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3.194516969243854</v>
+        <v>3.194516969243853</v>
       </c>
     </row>
     <row r="20">
@@ -1112,28 +1112,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.253182945014127</v>
+        <v>5.103511695110166</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.611590228527425</v>
+        <v>5.987819341098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.879530525170061</v>
+        <v>2.774604959761519</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.243385013865169</v>
+        <v>7.118172481384759</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4954005751100313</v>
+        <v>0.5806775952515775</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8781707958526281</v>
+        <v>0.7313651173134292</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5836925804307866</v>
+        <v>0.4613716862054965</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.573409215216081</v>
+        <v>1.557245688819916</v>
       </c>
     </row>
     <row r="21">
@@ -1144,28 +1144,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.27303067583245</v>
+        <v>14.74674470271025</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.91359426363522</v>
+        <v>15.2114005358879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.775284262738646</v>
+        <v>10.05002688200185</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.12839677996567</v>
+        <v>12.86463231791971</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.089496586735797</v>
+        <v>3.410201737240851</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.357666524964335</v>
+        <v>5.032184217061114</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.555345440657756</v>
+        <v>5.830347696158951</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.47185855050413</v>
+        <v>5.685327841031595</v>
       </c>
     </row>
     <row r="22">
@@ -1201,7 +1201,7 @@
         <v>0.5722782479397489</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.105878877561599</v>
+        <v>1.1058788775616</v>
       </c>
     </row>
     <row r="23">
@@ -1212,28 +1212,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.835861007042977</v>
+        <v>-7.470720651172548</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.800529026001613</v>
+        <v>2.191613542318821</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2543578423660723</v>
+        <v>-0.5734446003000225</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.040546417450125</v>
+        <v>3.905516523489385</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3519399492196882</v>
+        <v>-0.3475321972965298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0979215888146413</v>
+        <v>0.08627320192739968</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.003037077915642856</v>
+        <v>-0.07589105353357994</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4219666793019085</v>
+        <v>0.4653068965938811</v>
       </c>
     </row>
     <row r="24">
@@ -1244,28 +1244,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.07964566487274</v>
+        <v>6.382210571111692</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.50214225267045</v>
+        <v>15.52011487303838</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.217561974805204</v>
+        <v>8.817996773048616</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.89325530488161</v>
+        <v>11.01168603850354</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.433128995663781</v>
+        <v>0.4458102565470573</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.472877582716289</v>
+        <v>1.500518348441425</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.692924938699067</v>
+        <v>1.610039444050515</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.142646261359484</v>
+        <v>2.271875311545729</v>
       </c>
     </row>
     <row r="25">
@@ -1312,28 +1312,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.205012737915008</v>
+        <v>1.182000445658334</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.755392677185494</v>
+        <v>2.806622302268556</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.655255368729342</v>
+        <v>1.7176851847306</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.797889550351478</v>
+        <v>2.816848188261734</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3560202892551412</v>
+        <v>0.3444246804608952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.078283595456926</v>
+        <v>1.129970385559587</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.010549938524568</v>
+        <v>1.059617872568344</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.252978361552866</v>
+        <v>1.263727917557591</v>
       </c>
     </row>
     <row r="27">
@@ -1344,28 +1344,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.152474363600433</v>
+        <v>3.161185039422092</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.642842365267972</v>
+        <v>4.764566452161642</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.221190031516272</v>
+        <v>3.286010821110382</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.299388167291092</v>
+        <v>4.367178005459128</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.262021528849009</v>
+        <v>1.29663173860091</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.705302128361804</v>
+        <v>2.860094773047459</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.962419414622514</v>
+        <v>3.057645433197754</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.784830661984186</v>
+        <v>2.891303579045077</v>
       </c>
     </row>
     <row r="28">
